--- a/experiment result/64_0.7_40_zs30_kappa_lp.xlsx
+++ b/experiment result/64_0.7_40_zs30_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.004334237234283935</v>
+        <v>0.01402019805890765</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.007260810327558801</v>
+        <v>0.0007175887923530743</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01217020878501203</v>
+        <v>0.004581968739987854</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01868016638726677</v>
+        <v>0.03427173269127042</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01090412043164424</v>
+        <v>0.007274648564354527</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01207553061183594</v>
+        <v>0.01466905562325039</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.009568080668132759</v>
+        <v>0.002048259204351198</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00583605320587762</v>
+        <v>0.0008779792536701706</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01968347921626846</v>
+        <v>0.02178415015741429</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01293699088545281</v>
+        <v>0.01153209421707747</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0199133065015227</v>
+        <v>0.04419216252401519</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01918761693072104</v>
+        <v>0.01837728709842631</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01097030958137967</v>
+        <v>0.00147073895691846</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01456825894400336</v>
+        <v>0.007777405948798293</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01779502322595711</v>
+        <v>0.01075289628233112</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01729696538621932</v>
+        <v>0.004824425814286323</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01961621015030948</v>
+        <v>0.05045787431989457</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.004649611647226923</v>
+        <v>0.0002839983948753445</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01094438432252052</v>
+        <v>0.0316557890424087</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01761340608545874</v>
+        <v>0.009013133704496728</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.00667126873626592</v>
+        <v>0.003774990647151388</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01074785436894562</v>
+        <v>0.001573181052399199</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01134659591386863</v>
+        <v>0.004955810757613409</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.006240559759336373</v>
+        <v>0.004337712512375089</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.006998861667085503</v>
+        <v>0.001382091876760344</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01699682256252962</v>
+        <v>0.02014440569242226</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01126066069064599</v>
+        <v>0.01739025961950688</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01615164185930595</v>
+        <v>0.04001266410211281</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01184124218640895</v>
+        <v>0.03813507352227348</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0169058105560512</v>
+        <v>0.01217453608829738</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.005700947866124342</v>
+        <v>0.0001956266814437009</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01131983379100622</v>
+        <v>0.002912100293350624</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01675547728914353</v>
+        <v>0.0109787264647488</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00976364390922289</v>
+        <v>0.0006752210492702252</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01544054443795339</v>
+        <v>0.004217922791162629</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01366395111202344</v>
+        <v>0.0008500163845794233</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.006495881716108929</v>
+        <v>0.001241629956609534</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01514878609113971</v>
+        <v>0.0008922036347137234</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.008060522456757879</v>
+        <v>0.001523913253998418</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01080224133142554</v>
+        <v>0.01947869247653159</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01944922696769783</v>
+        <v>0.01457815758726802</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01119128903084959</v>
+        <v>0.008319035781797806</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01029325248889587</v>
+        <v>0.002943375074797945</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.008768447802591407</v>
+        <v>0.001738850317244991</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01729513297833641</v>
+        <v>0.008998179761168911</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0111226307713689</v>
+        <v>0.007486925351502287</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01488573642755814</v>
+        <v>0.008201161033862684</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.007118405727443407</v>
+        <v>0.003379638190785992</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01698936049579969</v>
+        <v>0.007075137997710754</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.006223093467498693</v>
+        <v>0.00067739353155311</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01445282362701905</v>
+        <v>0.0101031281258204</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01224404613555189</v>
+        <v>0.002368942343094726</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.002447187621319811</v>
+        <v>1.653272861834318e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.006579661992037404</v>
+        <v>0.000550698499440801</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01094103927488311</v>
+        <v>0.02959549439125634</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.009596312222356625</v>
+        <v>0.009655617292445868</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.008341003752157117</v>
+        <v>0.0009490761592928946</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.01043762902534423</v>
+        <v>0.01664378813309873</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0116328907455678</v>
+        <v>0.03624066960738075</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.007563335588893513</v>
+        <v>0.0001095811461564045</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.001919637423949934</v>
+        <v>1.081773866922541e-05</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.007329359466958435</v>
+        <v>0.002563744580697705</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.009410029914123074</v>
+        <v>0.02869208665961358</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008723533747797415</v>
+        <v>0.001161576988120355</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.01188951042470372</v>
+        <v>0.01787841100249186</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.01870757206866605</v>
+        <v>0.0104895297293767</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.01452953434007706</v>
+        <v>0.0006558120809772654</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.006769199509393728</v>
+        <v>0.0007422055783992389</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.004568314413708099</v>
+        <v>0.001435649758705002</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.006732187674260969</v>
+        <v>0.007948021791820192</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.008199153190239231</v>
+        <v>0.002025701013880239</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.008364320515498458</v>
+        <v>0.0009063636528210805</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.02030114297872269</v>
+        <v>0.011972581347526</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.00719582229216374</v>
+        <v>0.004461187469341652</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.009115464627967704</v>
+        <v>0.009132803282658275</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.01237414258218776</v>
+        <v>0.01709101182838347</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.006353809371811613</v>
+        <v>0.002186019629763359</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.01209543511496889</v>
+        <v>0.01081686962721819</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01155701135098675</v>
+        <v>0.0007736399973439612</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.01461808473477183</v>
+        <v>0.0012950394801482</v>
       </c>
     </row>
   </sheetData>
